--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3764.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3764.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2882900437573</v>
+        <v>0.9963370561599731</v>
       </c>
       <c r="B1">
-        <v>2.578006679884515</v>
+        <v>1.832856059074402</v>
       </c>
       <c r="C1">
-        <v>3.677357848454202</v>
+        <v>5.587380886077881</v>
       </c>
       <c r="D1">
-        <v>4.071901429210739</v>
+        <v>1.60502827167511</v>
       </c>
       <c r="E1">
-        <v>1.129366365154092</v>
+        <v>0.6523777842521667</v>
       </c>
     </row>
   </sheetData>
